--- a/src/Data/DataTest.xlsx
+++ b/src/Data/DataTest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Pedido</t>
   </si>
@@ -72,6 +72,33 @@
   </si>
   <si>
     <t>Empaque</t>
+  </si>
+  <si>
+    <t>Crear Box</t>
+  </si>
+  <si>
+    <t>Bulto</t>
+  </si>
+  <si>
+    <t>Enganchador</t>
+  </si>
+  <si>
+    <t>Preparador</t>
+  </si>
+  <si>
+    <t>WW000000000036</t>
+  </si>
+  <si>
+    <t>WW000000000686</t>
+  </si>
+  <si>
+    <t>Destino</t>
+  </si>
+  <si>
+    <t>WX000000000014</t>
+  </si>
+  <si>
+    <t>CC000001318023</t>
   </si>
 </sst>
 </file>
@@ -396,15 +423,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
@@ -435,7 +464,7 @@
         <v>4500144660</v>
       </c>
       <c r="B2" s="2">
-        <v>7450043069930</v>
+        <v>7450043069824</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
@@ -462,7 +491,7 @@
         <v>4500144645</v>
       </c>
       <c r="B3" s="1">
-        <v>7450043069961</v>
+        <v>7450043069770</v>
       </c>
       <c r="C3" s="1"/>
       <c r="G3" s="1">
@@ -507,10 +536,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4500144659</v>
+        <v>4500144676</v>
       </c>
       <c r="B9" s="1">
-        <v>630509936847</v>
+        <v>630509933105</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
@@ -547,10 +576,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4500144663</v>
+        <v>4500144675</v>
       </c>
       <c r="B17" s="1">
-        <v>7453065159115</v>
+        <v>7453065159108</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -578,10 +607,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4500144652</v>
+        <v>4500144685</v>
       </c>
       <c r="B21" s="1">
-        <v>2040000639167</v>
+        <v>2040000642174</v>
       </c>
       <c r="C21" s="1">
         <v>76</v>
@@ -594,6 +623,80 @@
       </c>
       <c r="F21">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4500144684</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2040000639167</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4500144686</v>
+      </c>
+      <c r="B24">
+        <v>19048182944</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2120000060298</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/Data/DataTest.xlsx
+++ b/src/Data/DataTest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Pedido</t>
   </si>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>CC000001318023</t>
+  </si>
+  <si>
+    <t>Pedido Nacional Comb - METROMALL</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>EMPAQUE</t>
+  </si>
+  <si>
+    <t>M005</t>
+  </si>
+  <si>
+    <t>Centro PPK</t>
   </si>
 </sst>
 </file>
@@ -119,12 +134,18 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -139,10 +160,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,6 +459,7 @@
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -488,10 +511,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4500144645</v>
+        <v>4500144688</v>
       </c>
       <c r="B3" s="1">
-        <v>7450043069770</v>
+        <v>7450043069886</v>
       </c>
       <c r="C3" s="1"/>
       <c r="G3" s="1">
@@ -574,7 +597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4500144675</v>
       </c>
@@ -591,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -604,8 +627,11 @@
       <c r="F20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4500144685</v>
       </c>
@@ -624,17 +650,54 @@
       <c r="F21">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>4500144611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4500144684</v>
+        <v>4500144691</v>
       </c>
       <c r="B22" s="1">
-        <v>2040000639167</v>
-      </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2040000642174</v>
+      </c>
+      <c r="C22" s="1">
+        <v>380</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>7611501611195</v>
+      </c>
+      <c r="I23">
+        <v>24</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4500144686</v>
       </c>
@@ -653,13 +716,48 @@
       <c r="F24">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>7822102021096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>7822102021102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4500144690</v>
+      </c>
+      <c r="B26">
+        <v>19048183262</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="H26" s="3">
+        <v>7201902266188</v>
+      </c>
+      <c r="I26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H27" s="3">
+        <v>7201902266645</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H28" s="3">
+        <v>7611501611126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -679,7 +777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>

--- a/src/Data/DataTest.xlsx
+++ b/src/Data/DataTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="DataTest" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Pedido</t>
   </si>
@@ -114,13 +114,43 @@
   </si>
   <si>
     <t>Centro PPK</t>
+  </si>
+  <si>
+    <t>Nacional Contenedor</t>
+  </si>
+  <si>
+    <t>PPK</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>CONT</t>
+  </si>
+  <si>
+    <t>Almacen</t>
+  </si>
+  <si>
+    <t>Piso</t>
+  </si>
+  <si>
+    <t>Bodega</t>
+  </si>
+  <si>
+    <t>Nacional Tienda</t>
+  </si>
+  <si>
+    <t>Metromall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +162,14 @@
       <sz val="10"/>
       <color rgb="FF212529"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -157,16 +195,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +535,7 @@
         <v>4500144660</v>
       </c>
       <c r="B2" s="2">
-        <v>7450043069824</v>
+        <v>2120000060465</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
@@ -514,7 +562,7 @@
         <v>4500144688</v>
       </c>
       <c r="B3" s="1">
-        <v>7450043069886</v>
+        <v>2120000060274</v>
       </c>
       <c r="C3" s="1"/>
       <c r="G3" s="1">
@@ -562,7 +610,7 @@
         <v>4500144676</v>
       </c>
       <c r="B9" s="1">
-        <v>630509933105</v>
+        <v>630509948437</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
@@ -599,10 +647,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4500144675</v>
+        <v>4500144694</v>
       </c>
       <c r="B17" s="1">
-        <v>7453065159108</v>
+        <v>2150301747147</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -636,7 +684,7 @@
         <v>4500144685</v>
       </c>
       <c r="B21" s="1">
-        <v>2040000642174</v>
+        <v>2040000641344</v>
       </c>
       <c r="C21" s="1">
         <v>76</v>
@@ -651,15 +699,15 @@
         <v>38</v>
       </c>
       <c r="H21">
-        <v>4500144611</v>
+        <v>4500144696</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4500144691</v>
+        <v>4500144692</v>
       </c>
       <c r="B22" s="1">
-        <v>2040000642174</v>
+        <v>2040000639167</v>
       </c>
       <c r="C22" s="1">
         <v>380</v>
@@ -681,8 +729,11 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H23" s="1">
-        <v>7611501611195</v>
+        <v>7611501690046</v>
       </c>
       <c r="I23">
         <v>24</v>
@@ -702,7 +753,7 @@
         <v>4500144686</v>
       </c>
       <c r="B24">
-        <v>19048182944</v>
+        <v>19048176103</v>
       </c>
       <c r="C24">
         <v>24</v>
@@ -716,46 +767,58 @@
       <c r="F24">
         <v>12</v>
       </c>
+      <c r="G24" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H24" s="1">
         <v>7822102021096</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="H25" s="1">
-        <v>7822102021102</v>
+        <v>7611501611126</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4500144690</v>
+        <v>4500144695</v>
       </c>
       <c r="B26">
-        <v>19048183262</v>
+        <v>19048176004</v>
       </c>
       <c r="C26">
         <v>50</v>
       </c>
-      <c r="H26" s="3">
-        <v>7201902266188</v>
+      <c r="G26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="4">
+        <v>7822102021102</v>
       </c>
       <c r="I26">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H27" s="3">
-        <v>7201902266645</v>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4">
+        <v>7822102021119</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H28" s="3">
-        <v>7611501611126</v>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4">
+        <v>7829102021798</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -776,6 +839,12 @@
       <c r="F31" t="s">
         <v>2</v>
       </c>
+      <c r="H31" s="4">
+        <v>4500144693</v>
+      </c>
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -795,6 +864,104 @@
       </c>
       <c r="F32">
         <v>12</v>
+      </c>
+      <c r="H32" s="4">
+        <v>7860211214022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="4">
+        <v>7860211214008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="4">
+        <v>7829102021842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4500144622</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7702433312172</v>
+      </c>
+      <c r="C41" s="1">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4500144692</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2040000639167</v>
+      </c>
+      <c r="C42" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4500144686</v>
+      </c>
+      <c r="B44">
+        <v>19048176103</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
